--- a/工作周报/马晓辉的周报20180309.xlsx
+++ b/工作周报/马晓辉的周报20180309.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3060" yWindow="2040" windowWidth="26200" windowHeight="13120"/>
+    <workbookView xWindow="2760" yWindow="2580" windowWidth="26200" windowHeight="13120"/>
   </bookViews>
   <sheets>
     <sheet name="周报" sheetId="6" r:id="rId1"/>
@@ -61,135 +61,138 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>准备下周二UAT发布内容</t>
-    <rPh sb="0" eb="1">
+    <t xml:space="preserve">1、大观园APP：进入开发阶段
+2、DMS：优化经销商备件管理，准备3月20号的生产和UAT发布
+</t>
+    <rPh sb="2" eb="3">
+      <t>da'guan'y</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>jin'ru</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>kai'f</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>jie'duan</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>you'h</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>jing'xiao's</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>bei'j</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>guan'l</t>
+    </rPh>
+    <rPh sb="32" eb="33">
       <t>zhun'b</t>
     </rPh>
+    <rPh sb="35" eb="36">
+      <t>yue</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>hao</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>d</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>sheng'c</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>he</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>fa'bu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、准备下周二UAT发布内容</t>
     <rPh sb="2" eb="3">
+      <t>zhun'b</t>
+    </rPh>
+    <rPh sb="4" eb="5">
       <t>xia'zhou'er</t>
     </rPh>
+    <rPh sb="10" eb="11">
+      <t>fa'bu</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>nei'rong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、完成基础项目搭建
+2、项目组成员任务分工
+3、项目组成员开发任务细化和开发计划
+4、项目管控细则</t>
+    <rPh sb="2" eb="3">
+      <t>wan'cheng</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ji'chu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>xiang'm</t>
+    </rPh>
     <rPh sb="8" eb="9">
-      <t>fa'bu</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>nei'rong</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">大观园APP：进入开发阶段
-DMS：优化经销商备件管理，准备3月20号的生产和UAT发布
-</t>
-    <rPh sb="0" eb="1">
-      <t>da'guan'y</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>jin'ru</t>
-    </rPh>
-    <rPh sb="9" eb="10">
+      <t>da'j</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>xiang'm</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>zu</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>cheng'y</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ren'wu</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>fen'gong</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>xiang'm</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>zu</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>cheng'y</t>
+    </rPh>
+    <rPh sb="30" eb="31">
       <t>kai'f</t>
     </rPh>
-    <rPh sb="11" eb="12">
-      <t>jie'duan</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>you'h</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>jing'xiao's</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>bei'j</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>guan'l</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>zhun'b</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>yue</t>
+    <rPh sb="32" eb="33">
+      <t>ren'wu</t>
     </rPh>
     <rPh sb="34" eb="35">
-      <t>hao</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>d</t>
+      <t>xi'h</t>
     </rPh>
     <rPh sb="36" eb="37">
-      <t>sheng'c</t>
-    </rPh>
-    <rPh sb="38" eb="39">
       <t>he</t>
     </rPh>
-    <rPh sb="42" eb="43">
-      <t>fa'bu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成项目搭建
-项目组成员任务分工
-项目组成员开发任务细化和开发计划
-项目管控细则</t>
-    <rPh sb="0" eb="1">
-      <t>wan'cheng</t>
-    </rPh>
-    <rPh sb="2" eb="3">
+    <rPh sb="37" eb="38">
+      <t>kai'f</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>ji'h</t>
+    </rPh>
+    <rPh sb="44" eb="45">
       <t>xiang'm</t>
     </rPh>
-    <rPh sb="4" eb="5">
-      <t>da'j</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>xiang'm</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>zu</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>cheng'y</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ren'wu</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>fen'gong</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>xiang'm</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>zu</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>cheng'y</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>kai'f</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>ren'wu</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>xi'h</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>he</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>kai'f</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>ji'h</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>xiang'm</t>
-    </rPh>
-    <rPh sb="36" eb="37">
+    <rPh sb="46" eb="47">
       <t>guan'k</t>
     </rPh>
-    <rPh sb="38" eb="39">
+    <rPh sb="48" eb="49">
       <t>xi'ze</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -673,7 +676,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="95" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -720,7 +723,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
@@ -729,7 +732,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
